--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5AB4CFA-DD80-4647-86C2-3F1CEBE43422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DFB2686-599E-4173-9C87-0F4DFFF89778}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,22 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>MovementSpd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeMovementSpd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -263,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8610A787-3BB0-4885-9DE5-36A47F4117D5}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -282,21 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표6" displayName="표6" ref="A2:L3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:L3"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Index"/>
-    <tableColumn id="12" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" name="HPMax"/>
-    <tableColumn id="3" name="PCHitboxRad"/>
-    <tableColumn id="4" name="MovementSpd"/>
-    <tableColumn id="5" name="MercyInvincibleTime"/>
-    <tableColumn id="6" name="DodgeCooldown"/>
-    <tableColumn id="7" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" name="ItemSlotMax"/>
-    <tableColumn id="9" name="BallStackMax"/>
-    <tableColumn id="10" name="GoldGain"/>
-    <tableColumn id="11" name="DefaultBallDataId"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8EAFEEF-BEA1-488B-A1AD-11F818289C07}" name="표6" displayName="표6" ref="A2:M3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:M3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{D211F6C7-673F-4AAF-BA72-FBCAA619A595}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{4CE93A09-4B76-400D-BD8A-4E8EB0022B3A}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0CB89475-6738-4302-89F1-7E668A1B8764}" name="HPMax"/>
+    <tableColumn id="3" xr3:uid="{EE72CAF2-510E-498A-8C19-DD744BE1E5C9}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{9F37CA14-68CA-4D76-B79D-6DD9162A58A3}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{EC88F48B-44B4-4FE1-ABA1-75581FCD8746}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{073FF82F-DE85-4025-9756-E5E580665566}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{7C7AFDCB-A550-4D59-B597-2251B8A3AB9E}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{97461764-46EC-4800-B545-80DD755E5B70}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{3B86DAAC-DF9F-4F1D-A5B6-EF72090793B4}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{FF5EDE90-9CBF-4741-B2DD-F0864438813D}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{8D52674B-4C63-4C27-A8A8-C5C877AF6E00}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{A322FAE4-296B-4C87-8BDC-5419A192639D}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -319,7 +324,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -331,7 +336,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -378,6 +383,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -413,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70A7983-5C55-4E87-9DF0-C597789FEA63}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -581,16 +620,17 @@
     <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,80 +638,86 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -683,24 +729,27 @@
         <v>575</v>
       </c>
       <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>200</v>
       </c>
     </row>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5AB4CFA-DD80-4647-86C2-3F1CEBE43422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F92AB0-784B-4D85-8440-25EDD3114D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DFB2686-599E-4173-9C87-0F4DFFF89778}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B01564F-947F-4E8E-AE88-33C1BD6FF78F}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8610A787-3BB0-4885-9DE5-36A47F4117D5}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{08438A3F-82C2-45C0-BAFB-8F3F7CE688C0}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8EAFEEF-BEA1-488B-A1AD-11F818289C07}" name="표6" displayName="표6" ref="A2:M3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD5BD29E-2D84-4F09-9B7C-11D1B445797C}" name="표6" displayName="표6" ref="A2:M3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:M3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D211F6C7-673F-4AAF-BA72-FBCAA619A595}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{4CE93A09-4B76-400D-BD8A-4E8EB0022B3A}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0CB89475-6738-4302-89F1-7E668A1B8764}" name="HPMax"/>
-    <tableColumn id="3" xr3:uid="{EE72CAF2-510E-498A-8C19-DD744BE1E5C9}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{9F37CA14-68CA-4D76-B79D-6DD9162A58A3}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{EC88F48B-44B4-4FE1-ABA1-75581FCD8746}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{073FF82F-DE85-4025-9756-E5E580665566}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{7C7AFDCB-A550-4D59-B597-2251B8A3AB9E}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{97461764-46EC-4800-B545-80DD755E5B70}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{3B86DAAC-DF9F-4F1D-A5B6-EF72090793B4}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{FF5EDE90-9CBF-4741-B2DD-F0864438813D}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{8D52674B-4C63-4C27-A8A8-C5C877AF6E00}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{A322FAE4-296B-4C87-8BDC-5419A192639D}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{0F5F1106-9953-4828-B05C-BFE25542C190}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{78CCC2F4-86AD-4143-B954-3158A7E567E3}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7999D65D-71DE-4907-8FB1-B16507B6BCA2}" name="HPMax"/>
+    <tableColumn id="3" xr3:uid="{0BDDDAEE-84A4-4E69-BF99-054B16A6ECEE}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{6F326C2A-2E42-4508-9814-C54127D7A393}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{5747A75D-C3EF-479A-AF77-1B4CEF980356}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{CAF246DA-37ED-4D81-B659-38855F0A13AB}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{43D0825C-FA2E-421E-8076-49519D81404E}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{BFB63C90-65A5-453B-ACEA-3253F24F6507}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{6F2E681F-046E-436D-81BD-17EB1FFB59EF}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{07FCB6E4-8FBC-44E8-948A-1EBFC25C9AB9}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{A943F3F9-700C-49FB-8905-60E11ADEEA81}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{17BAF998-D0D8-43A2-BA7B-BFF63602460E}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70A7983-5C55-4E87-9DF0-C597789FEA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA171247-0C81-4CAB-9A19-54B2845B696B}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F92AB0-784B-4D85-8440-25EDD3114D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC85646-AFB4-4FB3-BF9F-D445CC39C0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B01564F-947F-4E8E-AE88-33C1BD6FF78F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4ABA99-F520-4900-9946-CB4EB81F435D}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{08438A3F-82C2-45C0-BAFB-8F3F7CE688C0}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A6047C82-64CC-4BFF-9D86-80BE3D6C28DC}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD5BD29E-2D84-4F09-9B7C-11D1B445797C}" name="표6" displayName="표6" ref="A2:M3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:M3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1CAF5FB-36B2-44E0-9BA0-0B35803D44F6}" name="표6" displayName="표6" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{0F5F1106-9953-4828-B05C-BFE25542C190}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{78CCC2F4-86AD-4143-B954-3158A7E567E3}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{7999D65D-71DE-4907-8FB1-B16507B6BCA2}" name="HPMax"/>
-    <tableColumn id="3" xr3:uid="{0BDDDAEE-84A4-4E69-BF99-054B16A6ECEE}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{6F326C2A-2E42-4508-9814-C54127D7A393}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{5747A75D-C3EF-479A-AF77-1B4CEF980356}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{CAF246DA-37ED-4D81-B659-38855F0A13AB}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{43D0825C-FA2E-421E-8076-49519D81404E}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{BFB63C90-65A5-453B-ACEA-3253F24F6507}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{6F2E681F-046E-436D-81BD-17EB1FFB59EF}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{07FCB6E4-8FBC-44E8-948A-1EBFC25C9AB9}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{A943F3F9-700C-49FB-8905-60E11ADEEA81}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{17BAF998-D0D8-43A2-BA7B-BFF63602460E}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{B7AA5305-13DF-4859-9ADD-81647BE62BF3}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{DC212B6F-3FCD-46C8-A962-CA6087333260}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0842E0FE-7C5B-4263-9998-2E026F5E7602}" name="HPMax"/>
+    <tableColumn id="3" xr3:uid="{222E8F58-EDD7-4043-869E-E7D7EBEE992A}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{1D24A476-78BB-4064-862F-BCB8A18F21B8}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{5BF13BC8-690B-4FD0-AC37-55F60E30F38A}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{44ED2613-811E-4541-961D-61D4B7B21FBE}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{DDB5B698-3CAE-4FB1-A451-7F6EEDE7D28C}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{087333B6-0F0A-41C5-AFE8-149CBB2FF14B}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{9B5AE885-68A2-43A3-8907-6055B2F4CD4B}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{03F9228E-0ED3-4B20-848F-A3E67C1B8951}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{B46C6B28-067C-4E67-B54C-6A7ED79BB2D6}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{5E0C3EE0-22BA-47BE-A793-2DEE5FD3FB5F}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,54 +603,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA171247-0C81-4CAB-9A19-54B2845B696B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18006BE-880C-4FA1-A6B9-97ADAFDBEDA6}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -659,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -670,86 +667,89 @@
       <c r="M1" t="s">
         <v>0</v>
       </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
+    <row r="3" spans="2:14">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>150</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>575</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>200</v>
       </c>
     </row>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC85646-AFB4-4FB3-BF9F-D445CC39C0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5717D1B-AE08-419B-8D81-63A6B84C6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC4ABA99-F520-4900-9946-CB4EB81F435D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C92A16-E7A5-42BD-BF14-0F43A540ACE6}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HPMax</t>
+    <t>MaxHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A6047C82-64CC-4BFF-9D86-80BE3D6C28DC}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{BC68E049-44CE-4D1F-AE96-909CFD12C760}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1CAF5FB-36B2-44E0-9BA0-0B35803D44F6}" name="표6" displayName="표6" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25B9497B-F911-425E-8977-73BA25E8D7F0}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{B7AA5305-13DF-4859-9ADD-81647BE62BF3}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{DC212B6F-3FCD-46C8-A962-CA6087333260}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0842E0FE-7C5B-4263-9998-2E026F5E7602}" name="HPMax"/>
-    <tableColumn id="3" xr3:uid="{222E8F58-EDD7-4043-869E-E7D7EBEE992A}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{1D24A476-78BB-4064-862F-BCB8A18F21B8}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{5BF13BC8-690B-4FD0-AC37-55F60E30F38A}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{44ED2613-811E-4541-961D-61D4B7B21FBE}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{DDB5B698-3CAE-4FB1-A451-7F6EEDE7D28C}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{087333B6-0F0A-41C5-AFE8-149CBB2FF14B}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{9B5AE885-68A2-43A3-8907-6055B2F4CD4B}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{03F9228E-0ED3-4B20-848F-A3E67C1B8951}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{B46C6B28-067C-4E67-B54C-6A7ED79BB2D6}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{5E0C3EE0-22BA-47BE-A793-2DEE5FD3FB5F}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{F2399049-8ACD-4FE0-AE0B-6A80A8CC71ED}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{B1FCAD1F-0139-4EF7-8A1E-E932933A328C}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{CF8E3771-B812-4602-B13A-B4FDD2091D82}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{F87CAA08-9C1D-4BB8-840B-E3055259032A}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{2BD18E5F-6BBB-4E5C-A444-3BDE12C4AA16}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{7018CEBF-F418-42C3-A9FC-5C1865E29E8D}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{A9DFBD8D-AFAF-4DEC-9F74-9CA94580D0C3}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{D18ED773-80D7-4F26-9289-97213AAC9FBF}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{60FB0176-D9B8-4808-9127-C91FA4E23189}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{E352D101-A137-461C-8B5C-D0D9ACDFC0D4}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{0BAC0EDC-65EF-43F4-BF41-52BAEB375991}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{9D69613B-C976-4786-9698-6A99D9304E85}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{F614E04F-425E-43E8-9688-BAD9439DDC19}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18006BE-880C-4FA1-A6B9-97ADAFDBEDA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C81ED-1357-46E2-A835-88501116E178}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -644,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>575</v>
+        <v>5.75</v>
       </c>
       <c r="G3">
         <v>300</v>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5717D1B-AE08-419B-8D81-63A6B84C6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC7487C-4A4B-40F6-9ECF-1584BFA4F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C92A16-E7A5-42BD-BF14-0F43A540ACE6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4C2E44C-0968-491A-A976-FB625B05CDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{BC68E049-44CE-4D1F-AE96-909CFD12C760}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0FC781DE-91D0-4559-88E3-6104D2A88494}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25B9497B-F911-425E-8977-73BA25E8D7F0}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65E947A0-6FE0-4FE7-BF8B-E708E9F2FA21}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F2399049-8ACD-4FE0-AE0B-6A80A8CC71ED}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{B1FCAD1F-0139-4EF7-8A1E-E932933A328C}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CF8E3771-B812-4602-B13A-B4FDD2091D82}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{F87CAA08-9C1D-4BB8-840B-E3055259032A}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{2BD18E5F-6BBB-4E5C-A444-3BDE12C4AA16}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{7018CEBF-F418-42C3-A9FC-5C1865E29E8D}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{A9DFBD8D-AFAF-4DEC-9F74-9CA94580D0C3}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{D18ED773-80D7-4F26-9289-97213AAC9FBF}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{60FB0176-D9B8-4808-9127-C91FA4E23189}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{E352D101-A137-461C-8B5C-D0D9ACDFC0D4}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{0BAC0EDC-65EF-43F4-BF41-52BAEB375991}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{9D69613B-C976-4786-9698-6A99D9304E85}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{F614E04F-425E-43E8-9688-BAD9439DDC19}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{45117A7E-7BFC-42F0-85F5-59E6F59410A2}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{73048B2F-6958-460C-9ADC-6B4A6439F093}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{31BFFD6F-EE02-4AD9-8CAC-88B25A3F5F86}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{ED4E8A65-9C5F-433F-A172-23ECB10689F9}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{7FCEFCC8-58DB-4458-AAB2-742B6094AACA}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{9F8EFF71-B221-4875-87EC-E3413F95A5F0}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{8848E9F2-8B9C-49B4-A332-527D69D34A2F}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{3A7E8EC6-90EC-4AB4-BA26-F8C43D94541D}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{47BDCEB3-7F06-44E4-A261-43698D54B6CF}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{83F5D0B5-68EA-4BE7-ACF1-BB552B268C49}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{963C6866-B81C-4630-8534-615840CA098C}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{CFB0E520-97AF-43A1-A650-2982AACCB5F5}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{03B25A3A-1C29-480D-8BB3-41D5FB1CA32C}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C81ED-1357-46E2-A835-88501116E178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF41CF9-C3E5-48C0-84F5-6A03086795C5}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -726,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>5.75</v>
+        <v>575</v>
       </c>
       <c r="G3">
         <v>300</v>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC7487C-4A4B-40F6-9ECF-1584BFA4F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1306E768-FF48-42E7-9301-C44F1579F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4C2E44C-0968-491A-A976-FB625B05CDAF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04CF181D-8AA2-4ADC-813A-8D9F47AB4D53}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0FC781DE-91D0-4559-88E3-6104D2A88494}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8F25DA67-942A-4C76-AB40-3CC9B3958BED}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65E947A0-6FE0-4FE7-BF8B-E708E9F2FA21}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC7F6FBF-FD1F-489A-992B-DACD8C0CFF75}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{45117A7E-7BFC-42F0-85F5-59E6F59410A2}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{73048B2F-6958-460C-9ADC-6B4A6439F093}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{31BFFD6F-EE02-4AD9-8CAC-88B25A3F5F86}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{ED4E8A65-9C5F-433F-A172-23ECB10689F9}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{7FCEFCC8-58DB-4458-AAB2-742B6094AACA}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{9F8EFF71-B221-4875-87EC-E3413F95A5F0}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{8848E9F2-8B9C-49B4-A332-527D69D34A2F}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{3A7E8EC6-90EC-4AB4-BA26-F8C43D94541D}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{47BDCEB3-7F06-44E4-A261-43698D54B6CF}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{83F5D0B5-68EA-4BE7-ACF1-BB552B268C49}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{963C6866-B81C-4630-8534-615840CA098C}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{CFB0E520-97AF-43A1-A650-2982AACCB5F5}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{03B25A3A-1C29-480D-8BB3-41D5FB1CA32C}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{679D1F29-C38E-45B7-A8F9-9D7BD054D143}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{179B2B16-4120-441C-B8DF-780B6A127A88}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{972B4077-D1EE-4BFC-9D56-4D9662061A47}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{47A48708-A2A7-40BD-9333-E7F6BBFA3849}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{881D5B89-BB20-43EF-9EF8-0C8070E473B0}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{27F67CC4-9859-41B3-80F4-E6D7910384B6}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{AE4E712E-A909-4899-B998-71F471E018DE}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{6A28EBB5-714B-4D99-850A-553C20AFA36C}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{63C4DA90-1708-4D94-98F5-E4C1B525562E}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{E274A256-DF6B-4E15-A774-EED284071690}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{F7AE35D3-9D8B-433F-96BF-3E19C8A75D99}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{1F6579C4-0E82-41CC-938F-50AABDD12BF1}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{36A122C2-156D-401E-951F-7706ECD65DD5}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF41CF9-C3E5-48C0-84F5-6A03086795C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0406D39B-CC14-4288-BDEA-3FA9E07593F6}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -726,10 +726,10 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>575</v>
+        <v>370</v>
       </c>
       <c r="G3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H3">
         <v>3</v>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1306E768-FF48-42E7-9301-C44F1579F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EC594E-68B0-4F76-8CF3-ABB1AC973CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04CF181D-8AA2-4ADC-813A-8D9F47AB4D53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7444554B-C886-49B6-823B-1A4D68766179}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8F25DA67-942A-4C76-AB40-3CC9B3958BED}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7B198A5E-A2BA-4F23-90E7-7A7972A2B537}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC7F6FBF-FD1F-489A-992B-DACD8C0CFF75}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4439DEFA-4B57-4FDC-95ED-E4D93A5B2625}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{679D1F29-C38E-45B7-A8F9-9D7BD054D143}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{179B2B16-4120-441C-B8DF-780B6A127A88}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{972B4077-D1EE-4BFC-9D56-4D9662061A47}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{47A48708-A2A7-40BD-9333-E7F6BBFA3849}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{881D5B89-BB20-43EF-9EF8-0C8070E473B0}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{27F67CC4-9859-41B3-80F4-E6D7910384B6}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{AE4E712E-A909-4899-B998-71F471E018DE}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{6A28EBB5-714B-4D99-850A-553C20AFA36C}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{63C4DA90-1708-4D94-98F5-E4C1B525562E}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{E274A256-DF6B-4E15-A774-EED284071690}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{F7AE35D3-9D8B-433F-96BF-3E19C8A75D99}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{1F6579C4-0E82-41CC-938F-50AABDD12BF1}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{36A122C2-156D-401E-951F-7706ECD65DD5}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{2E59F688-A7BD-4288-A05B-558F8FF0F7A0}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{82F25806-A63B-48CD-92FE-4F34A8E8C134}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{926007A2-3CFE-4EFB-B060-A2F9A00E1315}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{EA66F09C-AB54-412B-AAEC-4D88E65ACB47}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{CEEA7EB7-FDF6-40F3-8DAC-DB7DE325F48D}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{5D1D8C9A-8178-4461-9033-95A2B2D74A5E}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{30644E23-7880-434D-A7F9-FC662FBFDE66}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{EAF0DFE9-4E7D-40EF-A68D-C0DB1EC89E89}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{36D3B652-1CBA-4546-AD9B-EF63E6267586}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{63336B0F-9C84-44FA-BFE5-205B86F45076}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{85CF89B9-8677-4112-8311-FA80936B84EC}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{C01E5088-430D-4182-A573-A15CFF0F67DE}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{B9332EDA-F429-4613-9174-F037A1DCA420}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0406D39B-CC14-4288-BDEA-3FA9E07593F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9E4D5B-BE4A-4BA0-8E2E-96BB9F4FF7F8}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EC594E-68B0-4F76-8CF3-ABB1AC973CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2F304D-2417-40F0-894D-FB101D1A8D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7444554B-C886-49B6-823B-1A4D68766179}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E382B8C3-A8FF-443B-8BF6-DD104A365AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7B198A5E-A2BA-4F23-90E7-7A7972A2B537}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6E6898F5-B33B-4EC5-9750-6CB5BB001FCD}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4439DEFA-4B57-4FDC-95ED-E4D93A5B2625}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BA3D83D-4843-4D8A-9530-C3B64F492EFF}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{2E59F688-A7BD-4288-A05B-558F8FF0F7A0}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{82F25806-A63B-48CD-92FE-4F34A8E8C134}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{926007A2-3CFE-4EFB-B060-A2F9A00E1315}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{EA66F09C-AB54-412B-AAEC-4D88E65ACB47}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{CEEA7EB7-FDF6-40F3-8DAC-DB7DE325F48D}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{5D1D8C9A-8178-4461-9033-95A2B2D74A5E}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{30644E23-7880-434D-A7F9-FC662FBFDE66}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{EAF0DFE9-4E7D-40EF-A68D-C0DB1EC89E89}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{36D3B652-1CBA-4546-AD9B-EF63E6267586}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{63336B0F-9C84-44FA-BFE5-205B86F45076}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{85CF89B9-8677-4112-8311-FA80936B84EC}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{C01E5088-430D-4182-A573-A15CFF0F67DE}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{B9332EDA-F429-4613-9174-F037A1DCA420}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{60D73803-6C26-4A4E-A9F8-86F73598D659}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{0DD19072-BA47-46C7-A068-B1D880054C2B}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{970B2F3A-0897-496C-90B6-D4584665BDCE}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{7645301E-2368-4C27-A929-6E8D70B9913E}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{1A36BC42-3CF4-49FC-B913-D724F5A36938}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{502EC549-8C22-4CCF-92D6-C0C47A7CC0E1}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{FFDE7D0F-49C5-4053-AA12-71D3A6016815}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{E96B4469-C59A-4FAF-84BD-C228494735EA}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{6777F4C4-638A-47DD-9EDB-6682F5F5D919}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{B270F25D-E92D-4BCD-A444-2245AACCAC66}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{D7BCD4D7-3DB0-447F-80BC-DE03CC9C6571}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{515A0B71-1290-4333-9994-EADB06F7D1EC}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{CCDD79F7-A32F-4E96-A36E-BAE1DA53BD04}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9E4D5B-BE4A-4BA0-8E2E-96BB9F4FF7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB5D7C-5874-400D-A5BB-76B671FC3BA5}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A2F304D-2417-40F0-894D-FB101D1A8D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{533386C7-AC75-4684-B510-17534618533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E382B8C3-A8FF-443B-8BF6-DD104A365AE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{702D3835-AAC7-4EEC-B261-844A52B75ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6E6898F5-B33B-4EC5-9750-6CB5BB001FCD}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B024AC82-F1E9-4F8D-8712-1A07ED9595E8}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BA3D83D-4843-4D8A-9530-C3B64F492EFF}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{313BC2A6-470B-4F5D-B202-3D74EF111D58}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{60D73803-6C26-4A4E-A9F8-86F73598D659}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{0DD19072-BA47-46C7-A068-B1D880054C2B}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{970B2F3A-0897-496C-90B6-D4584665BDCE}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{7645301E-2368-4C27-A929-6E8D70B9913E}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{1A36BC42-3CF4-49FC-B913-D724F5A36938}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{502EC549-8C22-4CCF-92D6-C0C47A7CC0E1}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{FFDE7D0F-49C5-4053-AA12-71D3A6016815}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{E96B4469-C59A-4FAF-84BD-C228494735EA}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{6777F4C4-638A-47DD-9EDB-6682F5F5D919}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{B270F25D-E92D-4BCD-A444-2245AACCAC66}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{D7BCD4D7-3DB0-447F-80BC-DE03CC9C6571}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{515A0B71-1290-4333-9994-EADB06F7D1EC}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{CCDD79F7-A32F-4E96-A36E-BAE1DA53BD04}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{E47842CC-1E74-4AD8-BEF7-B993EED67ADB}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{A7DC2B7C-07A5-4142-B297-1A098D4FAB2C}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A792EEB0-E874-43CC-B7D7-80876E5E5B80}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{AE5F9AF9-5DFC-4E3C-B87B-9C83451461B2}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{5A6B27EB-7D96-46C7-AA10-B11CB8363F67}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{0F7DCD68-BAB8-491E-99C7-BEB8F9C0310B}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{339D0FFC-E44A-4FFE-837D-7D850E15D0DF}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{3C475ED0-4F1A-4AD4-9BFA-E65E2F394941}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{90F96BF2-D54D-439E-ADA3-C506512BEDDA}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{3ABDF408-3A44-4FB0-9036-B954BF89652F}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{64A477BD-F29B-4B6C-90DE-88D4BF14CC27}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{7E59A43A-C7B6-47E3-8F79-C18EA4F505EF}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{5E1E3144-1D78-40FD-B331-2E9F0EDC36A5}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB5D7C-5874-400D-A5BB-76B671FC3BA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F8D5AE-C0EB-4DF4-9C96-8D96C1808CB4}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533386C7-AC75-4684-B510-17534618533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CA9B19-8D2B-4B67-A2ED-25A46F8AFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{702D3835-AAC7-4EEC-B261-844A52B75ADC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BE9503D-6F3B-41A8-9BBB-F74C193CF032}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B024AC82-F1E9-4F8D-8712-1A07ED9595E8}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9F202C47-B085-4B30-A87D-76229EF2D166}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{313BC2A6-470B-4F5D-B202-3D74EF111D58}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB8AC60E-B2AB-40B9-B932-0DC2482D49CA}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E47842CC-1E74-4AD8-BEF7-B993EED67ADB}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{A7DC2B7C-07A5-4142-B297-1A098D4FAB2C}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{A792EEB0-E874-43CC-B7D7-80876E5E5B80}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{AE5F9AF9-5DFC-4E3C-B87B-9C83451461B2}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{5A6B27EB-7D96-46C7-AA10-B11CB8363F67}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{0F7DCD68-BAB8-491E-99C7-BEB8F9C0310B}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{339D0FFC-E44A-4FFE-837D-7D850E15D0DF}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{3C475ED0-4F1A-4AD4-9BFA-E65E2F394941}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{90F96BF2-D54D-439E-ADA3-C506512BEDDA}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{3ABDF408-3A44-4FB0-9036-B954BF89652F}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{64A477BD-F29B-4B6C-90DE-88D4BF14CC27}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{7E59A43A-C7B6-47E3-8F79-C18EA4F505EF}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{5E1E3144-1D78-40FD-B331-2E9F0EDC36A5}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{61E01C30-E144-4D66-AA8D-483ABA28BE53}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{C087C935-08CA-4616-87EA-BA46F901576A}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{69148F06-9586-426E-8BBB-573C56A996C5}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{9D9AEAA4-5A62-4B7F-810A-407B5AA8E959}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{C1455B1A-34C8-44C6-A896-32DFD61852BF}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{623FB0F7-398F-40E7-8E83-185C53040AC2}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{50982F70-1549-48D7-8699-F693C916DFD2}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{90371121-ED08-47A3-B576-7BBED9A6453E}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{72D19689-7AEB-473B-97BF-E721851B05CA}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{B972D7EF-EFA2-4C70-B732-2ACE40873CC2}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{21B55EA8-DF05-401C-96C9-AB9A90AAFA9D}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{D5C15AAA-7F46-4E55-B87C-3A61E7D40629}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{6DF3C150-023B-4846-9B14-41F66C26CCCA}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F8D5AE-C0EB-4DF4-9C96-8D96C1808CB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CBFA64-406A-4304-BE44-981C01CF6C56}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -726,10 +726,10 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H3">
         <v>3</v>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CA9B19-8D2B-4B67-A2ED-25A46F8AFDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D3B2F0-E77E-4DE3-B9E2-CE6F0B285054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BE9503D-6F3B-41A8-9BBB-F74C193CF032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D0AFCE3-D88C-4B62-B4BD-53238CE84DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9F202C47-B085-4B30-A87D-76229EF2D166}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DC72FC51-DA94-4CF1-9902-05D824B49829}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB8AC60E-B2AB-40B9-B932-0DC2482D49CA}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AABEE7AD-78B5-4FFF-8FBE-75450DD8EF4B}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{61E01C30-E144-4D66-AA8D-483ABA28BE53}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{C087C935-08CA-4616-87EA-BA46F901576A}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{69148F06-9586-426E-8BBB-573C56A996C5}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{9D9AEAA4-5A62-4B7F-810A-407B5AA8E959}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{C1455B1A-34C8-44C6-A896-32DFD61852BF}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{623FB0F7-398F-40E7-8E83-185C53040AC2}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{50982F70-1549-48D7-8699-F693C916DFD2}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{90371121-ED08-47A3-B576-7BBED9A6453E}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{72D19689-7AEB-473B-97BF-E721851B05CA}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{B972D7EF-EFA2-4C70-B732-2ACE40873CC2}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{21B55EA8-DF05-401C-96C9-AB9A90AAFA9D}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{D5C15AAA-7F46-4E55-B87C-3A61E7D40629}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{6DF3C150-023B-4846-9B14-41F66C26CCCA}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{D2E7D3B5-440A-41FF-9D96-7A7A83B0F2EC}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{39BC4E11-CF14-4F5A-8EA9-1F5F54FB9AAE}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{284760DA-A979-4D76-8E1C-5C346197E3F6}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{31CE9F84-F360-4BA6-B384-8CCFCA5168DE}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{8DD142E7-3258-461A-8811-7A6869C837CE}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{E9611C5B-02FB-4D9B-BF19-BC8777FE80E9}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{1A1C7427-5153-4AC4-B2E0-BF9E89ED981C}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{469BD2C7-1C41-4D69-9DD5-65EBA4494B66}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{68AA8802-2101-4012-B5DB-57CFDDEBFDAE}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{71FCDCF6-60E5-4499-995A-64C4C554C45B}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{CB03C586-3D23-4813-94A0-EB5845C8E34A}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{946225E0-4ABA-4167-BB8B-D558AB41D24A}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{67FC1A7E-7150-4938-8118-0249902F41E1}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CBFA64-406A-4304-BE44-981C01CF6C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170C35F7-6879-4A60-AED5-946E2551FB13}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D3B2F0-E77E-4DE3-B9E2-CE6F0B285054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F425A9D3-A7B2-49CF-9DE3-CBA03296F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D0AFCE3-D88C-4B62-B4BD-53238CE84DAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94D23C8B-FBC7-4018-83AF-70F1AE4CB312}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{DC72FC51-DA94-4CF1-9902-05D824B49829}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{10A13F9C-077D-4B2C-8F2B-DAD6C3F8A681}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AABEE7AD-78B5-4FFF-8FBE-75450DD8EF4B}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94F2B5B7-5D3E-4C00-9807-FED00C577637}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D2E7D3B5-440A-41FF-9D96-7A7A83B0F2EC}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{39BC4E11-CF14-4F5A-8EA9-1F5F54FB9AAE}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{284760DA-A979-4D76-8E1C-5C346197E3F6}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{31CE9F84-F360-4BA6-B384-8CCFCA5168DE}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{8DD142E7-3258-461A-8811-7A6869C837CE}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{E9611C5B-02FB-4D9B-BF19-BC8777FE80E9}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{1A1C7427-5153-4AC4-B2E0-BF9E89ED981C}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{469BD2C7-1C41-4D69-9DD5-65EBA4494B66}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{68AA8802-2101-4012-B5DB-57CFDDEBFDAE}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{71FCDCF6-60E5-4499-995A-64C4C554C45B}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{CB03C586-3D23-4813-94A0-EB5845C8E34A}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{946225E0-4ABA-4167-BB8B-D558AB41D24A}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{67FC1A7E-7150-4938-8118-0249902F41E1}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{C7F86D9F-CD1E-4F62-AB0A-66429321A6F2}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{4A667979-3B8C-4CB6-83F1-D56E7E865E30}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3F387A0A-12AB-44A4-845F-62DBCC5C44DF}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{56BD339E-4B93-407C-9D72-DC62B2532D02}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{337C9E39-3D19-4F4E-BC4F-3DA3893A8259}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{5CA3B3C4-4600-4A35-800C-27C8BF770F71}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{B7551C6B-D0B5-4288-8757-4DCA412BE105}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{5AE67E2F-632C-46CC-AC03-483D84B20A0A}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{88301B0C-8837-484C-BA18-98FBF79D25BA}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{F459A987-56C5-4E9F-8520-D1D30C7AEB7D}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{2DC1E9AF-D60A-4BE1-B6F5-5F477DE0CA44}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{20D12FC2-325E-4EC2-9EBD-C302E29A4F56}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{C8340E71-E936-43FD-A809-CFC054545185}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170C35F7-6879-4A60-AED5-946E2551FB13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFB602A-6E0B-4087-9FB3-21534663013A}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F425A9D3-A7B2-49CF-9DE3-CBA03296F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46179758-A41D-4BC0-823A-719306D62BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94D23C8B-FBC7-4018-83AF-70F1AE4CB312}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E11533B-0F9C-4925-AEFA-43AC370FE899}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{10A13F9C-077D-4B2C-8F2B-DAD6C3F8A681}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3C8DFB66-972C-4542-B522-B5EB86D0AB4C}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -286,22 +286,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94F2B5B7-5D3E-4C00-9807-FED00C577637}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14AA5828-211A-4638-8049-D1EE1954BC2E}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C7F86D9F-CD1E-4F62-AB0A-66429321A6F2}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{4A667979-3B8C-4CB6-83F1-D56E7E865E30}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{3F387A0A-12AB-44A4-845F-62DBCC5C44DF}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{56BD339E-4B93-407C-9D72-DC62B2532D02}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{337C9E39-3D19-4F4E-BC4F-3DA3893A8259}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{5CA3B3C4-4600-4A35-800C-27C8BF770F71}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{B7551C6B-D0B5-4288-8757-4DCA412BE105}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{5AE67E2F-632C-46CC-AC03-483D84B20A0A}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{88301B0C-8837-484C-BA18-98FBF79D25BA}" name="DodgeInvincibleTime"/>
-    <tableColumn id="8" xr3:uid="{F459A987-56C5-4E9F-8520-D1D30C7AEB7D}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{2DC1E9AF-D60A-4BE1-B6F5-5F477DE0CA44}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{20D12FC2-325E-4EC2-9EBD-C302E29A4F56}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{C8340E71-E936-43FD-A809-CFC054545185}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{D54F1EF8-5CA3-42E3-9298-39DB0F04B351}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{55133BB9-5092-4B72-81EB-5DF0229ABFF1}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{652E5535-93BF-4721-B457-6E4283E0A341}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{30C7D404-4E19-4F6E-ACC2-2590475F6848}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{209D0331-4E38-49B6-B562-B0AC122138FC}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{9A8FF8A8-5846-460D-9314-2E94C4EC639D}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{824F9C0B-5423-4353-B9A2-5044E8CF7FDF}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{06FF55BB-F4EB-4DAF-B063-9F292E82E636}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{5CAA1ECF-BA76-4413-8EE5-41D548F52919}" name="DodgeInvincibleTime"/>
+    <tableColumn id="8" xr3:uid="{12F774CF-EB11-4446-90E3-1F696E8AED07}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{8720F719-56E9-4229-840A-1EA2AEFB6D70}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{AC240661-1619-4AA9-ACC6-2A7B7DBCA72D}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{FF4F59DB-5B27-4161-877A-82B748E9DA6E}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFB602A-6E0B-4087-9FB3-21534663013A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59033A1E-4ADA-481E-A5A8-5D6569908BF2}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matiy\OneDrive\Desktop\Unity\QT_Proto\_GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46179758-A41D-4BC0-823A-719306D62BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87584A6F-3835-4AEC-AE28-2407E9C3B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E11533B-0F9C-4925-AEFA-43AC370FE899}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6E11533B-0F9C-4925-AEFA-43AC370FE899}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeAddForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeDurationTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,9 +294,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14AA5828-211A-4638-8049-D1EE1954BC2E}" name="CharacterTable" displayName="CharacterTable" ref="B2:N3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B2:N3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14AA5828-211A-4638-8049-D1EE1954BC2E}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B2:P3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{D54F1EF8-5CA3-42E3-9298-39DB0F04B351}" name="Index"/>
     <tableColumn id="12" xr3:uid="{55133BB9-5092-4B72-81EB-5DF0229ABFF1}" name="#설명" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{652E5535-93BF-4721-B457-6E4283E0A341}" name="MaxHP"/>
@@ -298,6 +306,8 @@
     <tableColumn id="5" xr3:uid="{824F9C0B-5423-4353-B9A2-5044E8CF7FDF}" name="MercyInvincibleTime"/>
     <tableColumn id="6" xr3:uid="{06FF55BB-F4EB-4DAF-B063-9F292E82E636}" name="DodgeCooldown"/>
     <tableColumn id="7" xr3:uid="{5CAA1ECF-BA76-4413-8EE5-41D548F52919}" name="DodgeInvincibleTime"/>
+    <tableColumn id="16" xr3:uid="{CF4860D1-8036-42CB-A534-B8F526AE37B7}" name="DodgeDurationTime"/>
+    <tableColumn id="15" xr3:uid="{414C6B80-2F05-44FA-8583-0DF5A39D0B14}" name="DodgeAddForce"/>
     <tableColumn id="8" xr3:uid="{12F774CF-EB11-4446-90E3-1F696E8AED07}" name="ItemSlotMax"/>
     <tableColumn id="9" xr3:uid="{8720F719-56E9-4229-840A-1EA2AEFB6D70}" name="BallStackMax"/>
     <tableColumn id="10" xr3:uid="{AC240661-1619-4AA9-ACC6-2A7B7DBCA72D}" name="GoldGain"/>
@@ -607,10 +617,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:N3"/>
+  <dimension ref="B1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -624,13 +634,15 @@
     <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.375" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:16">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -659,10 +671,10 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -670,8 +682,14 @@
       <c r="N1" t="s">
         <v>0</v>
       </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:16">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -700,19 +718,25 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:16">
       <c r="B3">
         <v>100</v>
       </c>
@@ -726,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -741,15 +765,21 @@
         <v>0.3</v>
       </c>
       <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>200</v>
       </c>
     </row>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matiy\OneDrive\Desktop\Unity\QT_Proto\_GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87584A6F-3835-4AEC-AE28-2407E9C3B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC5B5AF-A1EE-4430-B94E-B12865B107FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6E11533B-0F9C-4925-AEFA-43AC370FE899}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31977B35-29F4-4807-B5FA-880B2A16ADE8}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DodgeDurationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DodgeAddForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemSlotMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,14 +111,6 @@
   </si>
   <si>
     <t>주인공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DodgeAddForce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DodgeDurationTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +275,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3C8DFB66-972C-4542-B522-B5EB86D0AB4C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0320D04F-3BFB-49E7-A6F8-7E5B7C1DF39A}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -294,24 +294,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14AA5828-211A-4638-8049-D1EE1954BC2E}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{111F5D0C-5D78-4316-A27A-4B8EDE2DAEA5}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:P3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{D54F1EF8-5CA3-42E3-9298-39DB0F04B351}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{55133BB9-5092-4B72-81EB-5DF0229ABFF1}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{652E5535-93BF-4721-B457-6E4283E0A341}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{30C7D404-4E19-4F6E-ACC2-2590475F6848}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{209D0331-4E38-49B6-B562-B0AC122138FC}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{9A8FF8A8-5846-460D-9314-2E94C4EC639D}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{824F9C0B-5423-4353-B9A2-5044E8CF7FDF}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{06FF55BB-F4EB-4DAF-B063-9F292E82E636}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{5CAA1ECF-BA76-4413-8EE5-41D548F52919}" name="DodgeInvincibleTime"/>
-    <tableColumn id="16" xr3:uid="{CF4860D1-8036-42CB-A534-B8F526AE37B7}" name="DodgeDurationTime"/>
-    <tableColumn id="15" xr3:uid="{414C6B80-2F05-44FA-8583-0DF5A39D0B14}" name="DodgeAddForce"/>
-    <tableColumn id="8" xr3:uid="{12F774CF-EB11-4446-90E3-1F696E8AED07}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{8720F719-56E9-4229-840A-1EA2AEFB6D70}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{AC240661-1619-4AA9-ACC6-2A7B7DBCA72D}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{FF4F59DB-5B27-4161-877A-82B748E9DA6E}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{48F838DC-53E7-4A46-B1C9-BF8A1EB1D9E8}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{67BE021F-A8A2-4582-877A-3694F573D032}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{28E7D4FB-6323-41BD-B81B-E34C0DB67C5D}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{E6003EA1-DE7E-4BBB-8D28-FD0BFE6B13C8}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{F6EE83E0-6D3E-4A7B-9D3A-90F788E9DC0E}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{58E6F1B8-5B47-4C73-9BFE-5B6F903B986F}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{67977F41-5BD8-4F68-981B-75012A2A6025}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{B39151F5-8516-4F9F-AC45-A6C8ACEEE37D}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{23D32A3C-AC94-434F-B731-F2639655FAB2}" name="DodgeInvincibleTime"/>
+    <tableColumn id="14" xr3:uid="{750DF6C4-BD9B-4414-9451-69DEF8F3271C}" name="DodgeDurationTime"/>
+    <tableColumn id="15" xr3:uid="{DE05E51C-6093-42B2-A119-6B187CA17288}" name="DodgeAddForce"/>
+    <tableColumn id="8" xr3:uid="{E9891070-E86A-432B-AADD-285EBF8C6178}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{CC409261-2A50-4585-84D1-BC14FB14BFDB}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{07E21A07-C593-4A3F-AB4B-0D2C2B310435}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{1765EE80-F64B-43BB-8F93-9139580B47DB}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,14 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59033A1E-4ADA-481E-A5A8-5D6569908BF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D7A260-E256-44F9-AEC7-9DDF41D7A864}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -639,7 +639,6 @@
     <col min="14" max="14" width="15.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -670,12 +669,6 @@
       <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -718,22 +711,22 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -741,7 +734,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -750,13 +743,13 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I3">
         <v>2</v>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC5B5AF-A1EE-4430-B94E-B12865B107FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D7E71A-51F4-4776-A6FB-8A2CEBE4F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31977B35-29F4-4807-B5FA-880B2A16ADE8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCF7161D-D6FE-463D-AACC-3743BCA8AF85}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flaot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,7 +279,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{0320D04F-3BFB-49E7-A6F8-7E5B7C1DF39A}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9A3262A3-9982-4AEE-8765-7475AE823AFD}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -294,24 +298,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{111F5D0C-5D78-4316-A27A-4B8EDE2DAEA5}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ABB929E-1162-44EF-84E6-CE19D9F445D1}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:P3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{48F838DC-53E7-4A46-B1C9-BF8A1EB1D9E8}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{67BE021F-A8A2-4582-877A-3694F573D032}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{28E7D4FB-6323-41BD-B81B-E34C0DB67C5D}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{E6003EA1-DE7E-4BBB-8D28-FD0BFE6B13C8}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{F6EE83E0-6D3E-4A7B-9D3A-90F788E9DC0E}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{58E6F1B8-5B47-4C73-9BFE-5B6F903B986F}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{67977F41-5BD8-4F68-981B-75012A2A6025}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{B39151F5-8516-4F9F-AC45-A6C8ACEEE37D}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{23D32A3C-AC94-434F-B731-F2639655FAB2}" name="DodgeInvincibleTime"/>
-    <tableColumn id="14" xr3:uid="{750DF6C4-BD9B-4414-9451-69DEF8F3271C}" name="DodgeDurationTime"/>
-    <tableColumn id="15" xr3:uid="{DE05E51C-6093-42B2-A119-6B187CA17288}" name="DodgeAddForce"/>
-    <tableColumn id="8" xr3:uid="{E9891070-E86A-432B-AADD-285EBF8C6178}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{CC409261-2A50-4585-84D1-BC14FB14BFDB}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{07E21A07-C593-4A3F-AB4B-0D2C2B310435}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{1765EE80-F64B-43BB-8F93-9139580B47DB}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{DCA326C4-C164-4948-BEFC-BC699672D0AE}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{45A29DEE-FDE6-4A8C-8C86-5C32DD96D140}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{385D566A-5E56-42EA-B3AB-51117CCD8D24}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{46C4AF19-4063-46F8-B228-9D80BE06B7D5}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{313289A5-D49A-4D97-B70F-9905F0D73433}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{FDFF166D-C96F-46C7-BCFC-0A02FB5D40F9}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{DA7077A2-56CF-4A60-8CD7-32355E66734A}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{0E8E1718-60EA-4B0B-A119-31001638E0FF}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{FF882513-8CCC-474B-86C6-5402BCAC941C}" name="DodgeInvincibleTime"/>
+    <tableColumn id="14" xr3:uid="{29727CEA-09FA-4F5C-90ED-9D5A37488AEA}" name="DodgeDurationTime"/>
+    <tableColumn id="15" xr3:uid="{29D9297F-A819-468E-86B6-879327A1F703}" name="DodgeAddForce"/>
+    <tableColumn id="8" xr3:uid="{483348BD-ED2C-4E1F-BB4D-E825A55342C2}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{9E59D3B7-7D1D-44F1-AE98-3EBB621659B9}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{DE4B01CB-56F3-4CEB-BDFB-5AE55E37B87F}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{AA554C33-F017-4BCC-BAB7-60FB35C2C001}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D7A260-E256-44F9-AEC7-9DDF41D7A864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28715ABD-0E0C-4264-BB84-D5B325137683}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -669,6 +673,12 @@
       <c r="J1" t="s">
         <v>2</v>
       </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -684,49 +694,49 @@
     </row>
     <row r="2" spans="2:16">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -734,7 +744,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>150</v>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D7E71A-51F4-4776-A6FB-8A2CEBE4F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA9F763-A72D-44A5-945A-9B383F077AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCF7161D-D6FE-463D-AACC-3743BCA8AF85}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{012AEB1D-2464-42B4-A9E5-752E795BE009}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9A3262A3-9982-4AEE-8765-7475AE823AFD}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{21BCA8FA-967B-40C1-9BD0-AC86C922C490}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -298,24 +298,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ABB929E-1162-44EF-84E6-CE19D9F445D1}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62A809F7-DB67-4D74-9C28-F4E2EE99CC3A}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:P3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{DCA326C4-C164-4948-BEFC-BC699672D0AE}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{45A29DEE-FDE6-4A8C-8C86-5C32DD96D140}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{385D566A-5E56-42EA-B3AB-51117CCD8D24}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{46C4AF19-4063-46F8-B228-9D80BE06B7D5}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{313289A5-D49A-4D97-B70F-9905F0D73433}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{FDFF166D-C96F-46C7-BCFC-0A02FB5D40F9}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{DA7077A2-56CF-4A60-8CD7-32355E66734A}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{0E8E1718-60EA-4B0B-A119-31001638E0FF}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{FF882513-8CCC-474B-86C6-5402BCAC941C}" name="DodgeInvincibleTime"/>
-    <tableColumn id="14" xr3:uid="{29727CEA-09FA-4F5C-90ED-9D5A37488AEA}" name="DodgeDurationTime"/>
-    <tableColumn id="15" xr3:uid="{29D9297F-A819-468E-86B6-879327A1F703}" name="DodgeAddForce"/>
-    <tableColumn id="8" xr3:uid="{483348BD-ED2C-4E1F-BB4D-E825A55342C2}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{9E59D3B7-7D1D-44F1-AE98-3EBB621659B9}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{DE4B01CB-56F3-4CEB-BDFB-5AE55E37B87F}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{AA554C33-F017-4BCC-BAB7-60FB35C2C001}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{7807C8AC-9B91-433E-A57D-2FF859B35925}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{FD78040E-F1FD-4C67-A228-D5A6B342D3ED}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8416215C-01CA-4395-9031-ADB82C79F2B3}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{C2058B72-E12B-405B-B601-680E96D7A96B}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{D279F1D6-7553-4646-9B68-BD87F184B27D}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{3AC71D00-F892-4752-8D2C-20D09ED6DC8C}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{C4FB0411-FC28-44A7-8FA6-1C7276B6A8D1}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{02DBF0A3-703D-4D5A-ADE4-4DD64DEBB5A3}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{C87334E4-7693-40E7-A506-EFCC743E4D21}" name="DodgeInvincibleTime"/>
+    <tableColumn id="14" xr3:uid="{25A29297-E5F0-4A06-94F4-17D7C3833FD2}" name="DodgeDurationTime"/>
+    <tableColumn id="15" xr3:uid="{73D0630D-9979-47CF-A608-151A2BF8AC44}" name="DodgeAddForce"/>
+    <tableColumn id="8" xr3:uid="{20ADD73A-379C-4AD6-8B4E-BA423D20B020}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{12C3F83C-8276-4432-B35C-DDCB0311EE26}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{128F2578-F8A9-4649-A55E-4F84F10CFA5B}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{7521C8E4-634D-4EF2-8163-F0B0F02C4755}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -617,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28715ABD-0E0C-4264-BB84-D5B325137683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09371C25-A221-4BDA-A516-6B40AFAAFD57}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/CharacterGameData.xlsx
+++ b/_GameData/CharacterGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA9F763-A72D-44A5-945A-9B383F077AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC647C82-A7DF-4D62-A76D-2EAB1B8B312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{012AEB1D-2464-42B4-A9E5-752E795BE009}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{070BDFC5-6968-4F88-A6F8-45BFC22B7ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterGameData" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{21BCA8FA-967B-40C1-9BD0-AC86C922C490}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{7AF8E312-B3D8-4DFB-BB8B-775D5C21EB3E}">
       <tableStyleElement type="wholeTable" dxfId="5"/>
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
@@ -298,24 +298,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{62A809F7-DB67-4D74-9C28-F4E2EE99CC3A}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDE41A5D-57A9-4DA6-8CC3-07FF810D562C}" name="CharacterTable" displayName="CharacterTable" ref="B2:P3" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B2:P3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{7807C8AC-9B91-433E-A57D-2FF859B35925}" name="Index"/>
-    <tableColumn id="12" xr3:uid="{FD78040E-F1FD-4C67-A228-D5A6B342D3ED}" name="#설명" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8416215C-01CA-4395-9031-ADB82C79F2B3}" name="MaxHP"/>
-    <tableColumn id="3" xr3:uid="{C2058B72-E12B-405B-B601-680E96D7A96B}" name="PCHitboxRad"/>
-    <tableColumn id="4" xr3:uid="{D279F1D6-7553-4646-9B68-BD87F184B27D}" name="MovementSpd"/>
-    <tableColumn id="13" xr3:uid="{3AC71D00-F892-4752-8D2C-20D09ED6DC8C}" name="ChargeMovementSpd"/>
-    <tableColumn id="5" xr3:uid="{C4FB0411-FC28-44A7-8FA6-1C7276B6A8D1}" name="MercyInvincibleTime"/>
-    <tableColumn id="6" xr3:uid="{02DBF0A3-703D-4D5A-ADE4-4DD64DEBB5A3}" name="DodgeCooldown"/>
-    <tableColumn id="7" xr3:uid="{C87334E4-7693-40E7-A506-EFCC743E4D21}" name="DodgeInvincibleTime"/>
-    <tableColumn id="14" xr3:uid="{25A29297-E5F0-4A06-94F4-17D7C3833FD2}" name="DodgeDurationTime"/>
-    <tableColumn id="15" xr3:uid="{73D0630D-9979-47CF-A608-151A2BF8AC44}" name="DodgeAddForce"/>
-    <tableColumn id="8" xr3:uid="{20ADD73A-379C-4AD6-8B4E-BA423D20B020}" name="ItemSlotMax"/>
-    <tableColumn id="9" xr3:uid="{12C3F83C-8276-4432-B35C-DDCB0311EE26}" name="BallStackMax"/>
-    <tableColumn id="10" xr3:uid="{128F2578-F8A9-4649-A55E-4F84F10CFA5B}" name="GoldGain"/>
-    <tableColumn id="11" xr3:uid="{7521C8E4-634D-4EF2-8163-F0B0F02C4755}" name="DefaultBallDataId"/>
+    <tableColumn id="1" xr3:uid="{236F3EB9-632B-499B-8B7B-E8CBACDCF238}" name="Index"/>
+    <tableColumn id="12" xr3:uid="{EAACD078-D2EC-4551-B095-EEB70EE625B5}" name="#설명" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{396E7AE0-FFBB-48DE-B9F8-D0D5F7F9516A}" name="MaxHP"/>
+    <tableColumn id="3" xr3:uid="{238E5C6A-B4E7-4040-82CB-55254BC6DD93}" name="PCHitboxRad"/>
+    <tableColumn id="4" xr3:uid="{6A174B90-0FE2-4CDD-9E9C-05A33F0C65EF}" name="MovementSpd"/>
+    <tableColumn id="13" xr3:uid="{08D8D0AC-0590-4248-A252-FBB522D84DE8}" name="ChargeMovementSpd"/>
+    <tableColumn id="5" xr3:uid="{4DAB4A70-8F99-4DE7-BF9D-63268718EAAA}" name="MercyInvincibleTime"/>
+    <tableColumn id="6" xr3:uid="{80EE4FA7-1277-45A3-94F5-075D079A2066}" name="DodgeCooldown"/>
+    <tableColumn id="7" xr3:uid="{83EDEA1B-D296-4830-B616-E88F49AD4672}" name="DodgeInvincibleTime"/>
+    <tableColumn id="14" xr3:uid="{396A5672-53FA-4C32-AD9E-21B72FE1C421}" name="DodgeDurationTime"/>
+    <tableColumn id="15" xr3:uid="{EC021495-C16E-4C77-8615-9802C70B518E}" name="DodgeAddForce"/>
+    <tableColumn id="8" xr3:uid="{83911244-0B8C-4C66-A655-BB46906E76AB}" name="ItemSlotMax"/>
+    <tableColumn id="9" xr3:uid="{D5321AFB-13B4-489C-9926-90FD85CB5D01}" name="BallStackMax"/>
+    <tableColumn id="10" xr3:uid="{C5EA213E-74AC-49AE-AAEB-1A3C803CED69}" name="GoldGain"/>
+    <tableColumn id="11" xr3:uid="{8108B141-07FF-4904-838D-88E0974C7899}" name="DefaultBallDataId"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -617,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09371C25-A221-4BDA-A516-6B40AFAAFD57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED768879-4DF0-44A6-9887-61B93A2A69E8}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -747,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -762,7 +762,7 @@
         <v>1.5</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0.3</v>
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1</v>
